--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Plxnc1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.0932243637709</v>
+        <v>36.23889466666667</v>
       </c>
       <c r="H2">
-        <v>33.0932243637709</v>
+        <v>108.716684</v>
       </c>
       <c r="I2">
-        <v>0.6465303282159447</v>
+        <v>0.6211538114277946</v>
       </c>
       <c r="J2">
-        <v>0.6465303282159447</v>
+        <v>0.6348862200079015</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.323389829843663</v>
+        <v>0.467875</v>
       </c>
       <c r="N2">
-        <v>0.323389829843663</v>
+        <v>1.403625</v>
       </c>
       <c r="O2">
-        <v>0.006349987745946781</v>
+        <v>0.00865732744599499</v>
       </c>
       <c r="P2">
-        <v>0.006349987745946781</v>
+        <v>0.008719533581595823</v>
       </c>
       <c r="Q2">
-        <v>10.70201219597803</v>
+        <v>16.95527284216667</v>
       </c>
       <c r="R2">
-        <v>10.70201219597803</v>
+        <v>152.5974555795</v>
       </c>
       <c r="S2">
-        <v>0.004105459661554199</v>
+        <v>0.005377531939858243</v>
       </c>
       <c r="T2">
-        <v>0.004105459661554199</v>
+        <v>0.005535911715851331</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.0932243637709</v>
+        <v>36.23889466666667</v>
       </c>
       <c r="H3">
-        <v>33.0932243637709</v>
+        <v>108.716684</v>
       </c>
       <c r="I3">
-        <v>0.6465303282159447</v>
+        <v>0.6211538114277946</v>
       </c>
       <c r="J3">
-        <v>0.6465303282159447</v>
+        <v>0.6348862200079015</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.60954932772499</v>
+        <v>2.983988333333334</v>
       </c>
       <c r="N3">
-        <v>2.60954932772499</v>
+        <v>8.951965000000001</v>
       </c>
       <c r="O3">
-        <v>0.05124034439026148</v>
+        <v>0.05521424332716115</v>
       </c>
       <c r="P3">
-        <v>0.05124034439026148</v>
+        <v>0.05561097831598217</v>
       </c>
       <c r="Q3">
-        <v>86.35840139073062</v>
+        <v>108.1364388982289</v>
       </c>
       <c r="R3">
-        <v>86.35840139073062</v>
+        <v>973.2279500840601</v>
       </c>
       <c r="S3">
-        <v>0.03312843667653379</v>
+        <v>0.03429653768776782</v>
       </c>
       <c r="T3">
-        <v>0.03312843667653379</v>
+        <v>0.0353066438139753</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.0932243637709</v>
+        <v>36.23889466666667</v>
       </c>
       <c r="H4">
-        <v>33.0932243637709</v>
+        <v>108.716684</v>
       </c>
       <c r="I4">
-        <v>0.6465303282159447</v>
+        <v>0.6211538114277946</v>
       </c>
       <c r="J4">
-        <v>0.6465303282159447</v>
+        <v>0.6348862200079015</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.0198784273849</v>
+        <v>26.20955833333333</v>
       </c>
       <c r="N4">
-        <v>24.0198784273849</v>
+        <v>78.628675</v>
       </c>
       <c r="O4">
-        <v>0.471647280147188</v>
+        <v>0.4849686961401515</v>
       </c>
       <c r="P4">
-        <v>0.471647280147188</v>
+        <v>0.4884533776036221</v>
       </c>
       <c r="Q4">
-        <v>794.8952259879491</v>
+        <v>949.8054237015223</v>
       </c>
       <c r="R4">
-        <v>794.8952259879491</v>
+        <v>8548.248813313699</v>
       </c>
       <c r="S4">
-        <v>0.3049342708357191</v>
+        <v>0.3012401540306231</v>
       </c>
       <c r="T4">
-        <v>0.3049342708357191</v>
+        <v>0.3101123185568558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.0932243637709</v>
+        <v>36.23889466666667</v>
       </c>
       <c r="H5">
-        <v>33.0932243637709</v>
+        <v>108.716684</v>
       </c>
       <c r="I5">
-        <v>0.6465303282159447</v>
+        <v>0.6211538114277946</v>
       </c>
       <c r="J5">
-        <v>0.6465303282159447</v>
+        <v>0.6348862200079015</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.04962023139</v>
+        <v>23.225729</v>
       </c>
       <c r="N5">
-        <v>23.04962023139</v>
+        <v>69.677187</v>
       </c>
       <c r="O5">
-        <v>0.452595575095268</v>
+        <v>0.4297573948703004</v>
       </c>
       <c r="P5">
-        <v>0.452595575095268</v>
+        <v>0.4328453624847321</v>
       </c>
       <c r="Q5">
-        <v>762.7862538171023</v>
+        <v>841.6747467875454</v>
       </c>
       <c r="R5">
-        <v>762.7862538171023</v>
+        <v>7575.072721087909</v>
       </c>
       <c r="S5">
-        <v>0.2926167657154279</v>
+        <v>0.2669454438129668</v>
       </c>
       <c r="T5">
-        <v>0.2926167657154279</v>
+        <v>0.2748075560358815</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.0932243637709</v>
+        <v>36.23889466666667</v>
       </c>
       <c r="H6">
-        <v>33.0932243637709</v>
+        <v>108.716684</v>
       </c>
       <c r="I6">
-        <v>0.6465303282159447</v>
+        <v>0.6211538114277946</v>
       </c>
       <c r="J6">
-        <v>0.6465303282159447</v>
+        <v>0.6348862200079015</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.925192721224611</v>
+        <v>1.156664</v>
       </c>
       <c r="N6">
-        <v>0.925192721224611</v>
+        <v>2.313328</v>
       </c>
       <c r="O6">
-        <v>0.01816681262133563</v>
+        <v>0.02140233821639188</v>
       </c>
       <c r="P6">
-        <v>0.01816681262133563</v>
+        <v>0.01437074801406779</v>
       </c>
       <c r="Q6">
-        <v>30.6176103032138</v>
+        <v>41.91622486072533</v>
       </c>
       <c r="R6">
-        <v>30.6176103032138</v>
+        <v>251.497349164352</v>
       </c>
       <c r="S6">
-        <v>0.01174539532670969</v>
+        <v>0.01329414395657856</v>
       </c>
       <c r="T6">
-        <v>0.01174539532670969</v>
+        <v>0.009123789885337557</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2320498443567</v>
+        <v>17.53747233333333</v>
       </c>
       <c r="H7">
-        <v>16.2320498443567</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I7">
-        <v>0.3171196737474294</v>
+        <v>0.3006015465664726</v>
       </c>
       <c r="J7">
-        <v>0.3171196737474294</v>
+        <v>0.307247216578179</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.323389829843663</v>
+        <v>0.467875</v>
       </c>
       <c r="N7">
-        <v>0.323389829843663</v>
+        <v>1.403625</v>
       </c>
       <c r="O7">
-        <v>0.006349987745946781</v>
+        <v>0.00865732744599499</v>
       </c>
       <c r="P7">
-        <v>0.006349987745946781</v>
+        <v>0.008719533581595823</v>
       </c>
       <c r="Q7">
-        <v>5.249279837180369</v>
+        <v>8.205344867958331</v>
       </c>
       <c r="R7">
-        <v>5.249279837180369</v>
+        <v>73.84810381162498</v>
       </c>
       <c r="S7">
-        <v>0.002013706042294818</v>
+        <v>0.002602406019398464</v>
       </c>
       <c r="T7">
-        <v>0.002013706042294818</v>
+        <v>0.002679052422805277</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.2320498443567</v>
+        <v>17.53747233333333</v>
       </c>
       <c r="H8">
-        <v>16.2320498443567</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I8">
-        <v>0.3171196737474294</v>
+        <v>0.3006015465664726</v>
       </c>
       <c r="J8">
-        <v>0.3171196737474294</v>
+        <v>0.307247216578179</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.60954932772499</v>
+        <v>2.983988333333334</v>
       </c>
       <c r="N8">
-        <v>2.60954932772499</v>
+        <v>8.951965000000001</v>
       </c>
       <c r="O8">
-        <v>0.05124034439026148</v>
+        <v>0.05521424332716115</v>
       </c>
       <c r="P8">
-        <v>0.05124034439026148</v>
+        <v>0.05561097831598217</v>
       </c>
       <c r="Q8">
-        <v>42.35833475893956</v>
+        <v>52.33161283882278</v>
       </c>
       <c r="R8">
-        <v>42.35833475893956</v>
+        <v>470.984515549405</v>
       </c>
       <c r="S8">
-        <v>0.01624932129574564</v>
+        <v>0.01659748693664218</v>
       </c>
       <c r="T8">
-        <v>0.01624932129574564</v>
+        <v>0.01708631829877499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.2320498443567</v>
+        <v>17.53747233333333</v>
       </c>
       <c r="H9">
-        <v>16.2320498443567</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I9">
-        <v>0.3171196737474294</v>
+        <v>0.3006015465664726</v>
       </c>
       <c r="J9">
-        <v>0.3171196737474294</v>
+        <v>0.307247216578179</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.0198784273849</v>
+        <v>26.20955833333333</v>
       </c>
       <c r="N9">
-        <v>24.0198784273849</v>
+        <v>78.628675</v>
       </c>
       <c r="O9">
-        <v>0.471647280147188</v>
+        <v>0.4849686961401515</v>
       </c>
       <c r="P9">
-        <v>0.471647280147188</v>
+        <v>0.4884533776036221</v>
       </c>
       <c r="Q9">
-        <v>389.8918638886998</v>
+        <v>459.6494041397194</v>
       </c>
       <c r="R9">
-        <v>389.8918638886998</v>
+        <v>4136.844637257474</v>
       </c>
       <c r="S9">
-        <v>0.1495686316041387</v>
+        <v>0.1457823400960553</v>
       </c>
       <c r="T9">
-        <v>0.1495686316041387</v>
+        <v>0.1500759406969231</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.2320498443567</v>
+        <v>17.53747233333333</v>
       </c>
       <c r="H10">
-        <v>16.2320498443567</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I10">
-        <v>0.3171196737474294</v>
+        <v>0.3006015465664726</v>
       </c>
       <c r="J10">
-        <v>0.3171196737474294</v>
+        <v>0.307247216578179</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.04962023139</v>
+        <v>23.225729</v>
       </c>
       <c r="N10">
-        <v>23.04962023139</v>
+        <v>69.677187</v>
       </c>
       <c r="O10">
-        <v>0.452595575095268</v>
+        <v>0.4297573948703004</v>
       </c>
       <c r="P10">
-        <v>0.452595575095268</v>
+        <v>0.4328453624847321</v>
       </c>
       <c r="Q10">
-        <v>374.1425844894151</v>
+        <v>407.3205797589976</v>
       </c>
       <c r="R10">
-        <v>374.1425844894151</v>
+        <v>3665.885217830979</v>
       </c>
       <c r="S10">
-        <v>0.1435269611137416</v>
+        <v>0.1291857375463906</v>
       </c>
       <c r="T10">
-        <v>0.1435269611137416</v>
+        <v>0.1329905328322069</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.2320498443567</v>
+        <v>17.53747233333333</v>
       </c>
       <c r="H11">
-        <v>16.2320498443567</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I11">
-        <v>0.3171196737474294</v>
+        <v>0.3006015465664726</v>
       </c>
       <c r="J11">
-        <v>0.3171196737474294</v>
+        <v>0.307247216578179</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.925192721224611</v>
+        <v>1.156664</v>
       </c>
       <c r="N11">
-        <v>0.925192721224611</v>
+        <v>2.313328</v>
       </c>
       <c r="O11">
-        <v>0.01816681262133563</v>
+        <v>0.02140233821639188</v>
       </c>
       <c r="P11">
-        <v>0.01816681262133563</v>
+        <v>0.01437074801406779</v>
       </c>
       <c r="Q11">
-        <v>15.0177743665539</v>
+        <v>20.28496289896266</v>
       </c>
       <c r="R11">
-        <v>15.0177743665539</v>
+        <v>121.709777393776</v>
       </c>
       <c r="S11">
-        <v>0.005761053691508636</v>
+        <v>0.006433575967986119</v>
       </c>
       <c r="T11">
-        <v>0.005761053691508636</v>
+        <v>0.004415372327468723</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.86060666940114</v>
+        <v>0.4274783333333333</v>
       </c>
       <c r="H12">
-        <v>1.86060666940114</v>
+        <v>1.282435</v>
       </c>
       <c r="I12">
-        <v>0.03634999803662596</v>
+        <v>0.007327204609721206</v>
       </c>
       <c r="J12">
-        <v>0.03634999803662596</v>
+        <v>0.007489193742846619</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.323389829843663</v>
+        <v>0.467875</v>
       </c>
       <c r="N12">
-        <v>0.323389829843663</v>
+        <v>1.403625</v>
       </c>
       <c r="O12">
-        <v>0.006349987745946781</v>
+        <v>0.00865732744599499</v>
       </c>
       <c r="P12">
-        <v>0.006349987745946781</v>
+        <v>0.008719533581595823</v>
       </c>
       <c r="Q12">
-        <v>0.6017012742236192</v>
+        <v>0.2000064252083333</v>
       </c>
       <c r="R12">
-        <v>0.6017012742236192</v>
+        <v>1.800057826875</v>
       </c>
       <c r="S12">
-        <v>0.0002308220420977644</v>
+        <v>6.343400957016041E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002308220420977644</v>
+        <v>6.530227633982841E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.86060666940114</v>
+        <v>0.4274783333333333</v>
       </c>
       <c r="H13">
-        <v>1.86060666940114</v>
+        <v>1.282435</v>
       </c>
       <c r="I13">
-        <v>0.03634999803662596</v>
+        <v>0.007327204609721206</v>
       </c>
       <c r="J13">
-        <v>0.03634999803662596</v>
+        <v>0.007489193742846619</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.60954932772499</v>
+        <v>2.983988333333334</v>
       </c>
       <c r="N13">
-        <v>2.60954932772499</v>
+        <v>8.951965000000001</v>
       </c>
       <c r="O13">
-        <v>0.05124034439026148</v>
+        <v>0.05521424332716115</v>
       </c>
       <c r="P13">
-        <v>0.05124034439026148</v>
+        <v>0.05561097831598217</v>
       </c>
       <c r="Q13">
-        <v>4.855344883296378</v>
+        <v>1.275590359419445</v>
       </c>
       <c r="R13">
-        <v>4.855344883296378</v>
+        <v>11.480313234775</v>
       </c>
       <c r="S13">
-        <v>0.001862586417982043</v>
+        <v>0.0004045660582290435</v>
       </c>
       <c r="T13">
-        <v>0.001862586417982043</v>
+        <v>0.0004164813908376327</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.86060666940114</v>
+        <v>0.4274783333333333</v>
       </c>
       <c r="H14">
-        <v>1.86060666940114</v>
+        <v>1.282435</v>
       </c>
       <c r="I14">
-        <v>0.03634999803662596</v>
+        <v>0.007327204609721206</v>
       </c>
       <c r="J14">
-        <v>0.03634999803662596</v>
+        <v>0.007489193742846619</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.0198784273849</v>
+        <v>26.20955833333333</v>
       </c>
       <c r="N14">
-        <v>24.0198784273849</v>
+        <v>78.628675</v>
       </c>
       <c r="O14">
-        <v>0.471647280147188</v>
+        <v>0.4849686961401515</v>
       </c>
       <c r="P14">
-        <v>0.471647280147188</v>
+        <v>0.4884533776036221</v>
       </c>
       <c r="Q14">
-        <v>44.69154600019691</v>
+        <v>11.20401831373611</v>
       </c>
       <c r="R14">
-        <v>44.69154600019691</v>
+        <v>100.836164823625</v>
       </c>
       <c r="S14">
-        <v>0.01714437770733026</v>
+        <v>0.003553464865928601</v>
       </c>
       <c r="T14">
-        <v>0.01714437770733026</v>
+        <v>0.003658121979221344</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.86060666940114</v>
+        <v>0.4274783333333333</v>
       </c>
       <c r="H15">
-        <v>1.86060666940114</v>
+        <v>1.282435</v>
       </c>
       <c r="I15">
-        <v>0.03634999803662596</v>
+        <v>0.007327204609721206</v>
       </c>
       <c r="J15">
-        <v>0.03634999803662596</v>
+        <v>0.007489193742846619</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.04962023139</v>
+        <v>23.225729</v>
       </c>
       <c r="N15">
-        <v>23.04962023139</v>
+        <v>69.677187</v>
       </c>
       <c r="O15">
-        <v>0.452595575095268</v>
+        <v>0.4297573948703004</v>
       </c>
       <c r="P15">
-        <v>0.452595575095268</v>
+        <v>0.4328453624847321</v>
       </c>
       <c r="Q15">
-        <v>42.88627712968768</v>
+        <v>9.928495923371667</v>
       </c>
       <c r="R15">
-        <v>42.88627712968768</v>
+        <v>89.35646331034501</v>
       </c>
       <c r="S15">
-        <v>0.01645184826609859</v>
+        <v>0.003148920364755442</v>
       </c>
       <c r="T15">
-        <v>0.01645184826609859</v>
+        <v>0.003241662780340833</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4274783333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.282435</v>
+      </c>
+      <c r="I16">
+        <v>0.007327204609721206</v>
+      </c>
+      <c r="J16">
+        <v>0.007489193742846619</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.156664</v>
+      </c>
+      <c r="N16">
+        <v>2.313328</v>
+      </c>
+      <c r="O16">
+        <v>0.02140233821639188</v>
+      </c>
+      <c r="P16">
+        <v>0.01437074801406779</v>
+      </c>
+      <c r="Q16">
+        <v>0.4944487989466667</v>
+      </c>
+      <c r="R16">
+        <v>2.96669279368</v>
+      </c>
+      <c r="S16">
+        <v>0.0001568193112379589</v>
+      </c>
+      <c r="T16">
+        <v>0.000107625316106982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.351698</v>
+      </c>
+      <c r="H17">
+        <v>1.055094</v>
+      </c>
+      <c r="I17">
+        <v>0.006028289636893243</v>
+      </c>
+      <c r="J17">
+        <v>0.00616156248302254</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.467875</v>
+      </c>
+      <c r="N17">
+        <v>1.403625</v>
+      </c>
+      <c r="O17">
+        <v>0.00865732744599499</v>
+      </c>
+      <c r="P17">
+        <v>0.008719533581595823</v>
+      </c>
+      <c r="Q17">
+        <v>0.16455070175</v>
+      </c>
+      <c r="R17">
+        <v>1.48095631575</v>
+      </c>
+      <c r="S17">
+        <v>5.218887732588305E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.372595098581599E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.351698</v>
+      </c>
+      <c r="H18">
+        <v>1.055094</v>
+      </c>
+      <c r="I18">
+        <v>0.006028289636893243</v>
+      </c>
+      <c r="J18">
+        <v>0.00616156248302254</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.983988333333334</v>
+      </c>
+      <c r="N18">
+        <v>8.951965000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.05521424332716115</v>
+      </c>
+      <c r="P18">
+        <v>0.05561097831598217</v>
+      </c>
+      <c r="Q18">
+        <v>1.049462728856667</v>
+      </c>
+      <c r="R18">
+        <v>9.445164559710001</v>
+      </c>
+      <c r="S18">
+        <v>0.0003328474508580274</v>
+      </c>
+      <c r="T18">
+        <v>0.0003426505176359358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.351698</v>
+      </c>
+      <c r="H19">
+        <v>1.055094</v>
+      </c>
+      <c r="I19">
+        <v>0.006028289636893243</v>
+      </c>
+      <c r="J19">
+        <v>0.00616156248302254</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>26.20955833333333</v>
+      </c>
+      <c r="N19">
+        <v>78.628675</v>
+      </c>
+      <c r="O19">
+        <v>0.4849686961401515</v>
+      </c>
+      <c r="P19">
+        <v>0.4884533776036221</v>
+      </c>
+      <c r="Q19">
+        <v>9.217849246716668</v>
+      </c>
+      <c r="R19">
+        <v>82.96064322045</v>
+      </c>
+      <c r="S19">
+        <v>0.002923531765159304</v>
+      </c>
+      <c r="T19">
+        <v>0.00300963600614812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.351698</v>
+      </c>
+      <c r="H20">
+        <v>1.055094</v>
+      </c>
+      <c r="I20">
+        <v>0.006028289636893243</v>
+      </c>
+      <c r="J20">
+        <v>0.00616156248302254</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>23.225729</v>
+      </c>
+      <c r="N20">
+        <v>69.677187</v>
+      </c>
+      <c r="O20">
+        <v>0.4297573948703004</v>
+      </c>
+      <c r="P20">
+        <v>0.4328453624847321</v>
+      </c>
+      <c r="Q20">
+        <v>8.168442437842002</v>
+      </c>
+      <c r="R20">
+        <v>73.515981940578</v>
+      </c>
+      <c r="S20">
+        <v>0.002590702049874869</v>
+      </c>
+      <c r="T20">
+        <v>0.002667003746436217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.351698</v>
+      </c>
+      <c r="H21">
+        <v>1.055094</v>
+      </c>
+      <c r="I21">
+        <v>0.006028289636893243</v>
+      </c>
+      <c r="J21">
+        <v>0.00616156248302254</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.156664</v>
+      </c>
+      <c r="N21">
+        <v>2.313328</v>
+      </c>
+      <c r="O21">
+        <v>0.02140233821639188</v>
+      </c>
+      <c r="P21">
+        <v>0.01437074801406779</v>
+      </c>
+      <c r="Q21">
+        <v>0.406796415472</v>
+      </c>
+      <c r="R21">
+        <v>2.440778492832</v>
+      </c>
+      <c r="S21">
+        <v>0.0001290194936751594</v>
+      </c>
+      <c r="T21">
+        <v>8.854626181645078E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.7857145</v>
+      </c>
+      <c r="H22">
+        <v>7.571429</v>
+      </c>
+      <c r="I22">
+        <v>0.06488914775911858</v>
+      </c>
+      <c r="J22">
+        <v>0.04421580718805042</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.467875</v>
+      </c>
+      <c r="N22">
+        <v>1.403625</v>
+      </c>
+      <c r="O22">
+        <v>0.00865732744599499</v>
+      </c>
+      <c r="P22">
+        <v>0.008719533581595823</v>
+      </c>
+      <c r="Q22">
+        <v>1.7712411716875</v>
+      </c>
+      <c r="R22">
+        <v>10.627447030125</v>
+      </c>
+      <c r="S22">
+        <v>0.0005617665998422416</v>
+      </c>
+      <c r="T22">
+        <v>0.0003855412156135716</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.7857145</v>
+      </c>
+      <c r="H23">
+        <v>7.571429</v>
+      </c>
+      <c r="I23">
+        <v>0.06488914775911858</v>
+      </c>
+      <c r="J23">
+        <v>0.04421580718805042</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.983988333333334</v>
+      </c>
+      <c r="N23">
+        <v>8.951965000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.05521424332716115</v>
+      </c>
+      <c r="P23">
+        <v>0.05561097831598217</v>
+      </c>
+      <c r="Q23">
+        <v>11.29652790133084</v>
+      </c>
+      <c r="R23">
+        <v>67.77916740798501</v>
+      </c>
+      <c r="S23">
+        <v>0.003582805193664087</v>
+      </c>
+      <c r="T23">
+        <v>0.00245888429475832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.86060666940114</v>
-      </c>
-      <c r="H16">
-        <v>1.86060666940114</v>
-      </c>
-      <c r="I16">
-        <v>0.03634999803662596</v>
-      </c>
-      <c r="J16">
-        <v>0.03634999803662596</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.925192721224611</v>
-      </c>
-      <c r="N16">
-        <v>0.925192721224611</v>
-      </c>
-      <c r="O16">
-        <v>0.01816681262133563</v>
-      </c>
-      <c r="P16">
-        <v>0.01816681262133563</v>
-      </c>
-      <c r="Q16">
-        <v>1.721419747591901</v>
-      </c>
-      <c r="R16">
-        <v>1.721419747591901</v>
-      </c>
-      <c r="S16">
-        <v>0.0006603636031173017</v>
-      </c>
-      <c r="T16">
-        <v>0.0006603636031173017</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.7857145</v>
+      </c>
+      <c r="H24">
+        <v>7.571429</v>
+      </c>
+      <c r="I24">
+        <v>0.06488914775911858</v>
+      </c>
+      <c r="J24">
+        <v>0.04421580718805042</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>26.20955833333333</v>
+      </c>
+      <c r="N24">
+        <v>78.628675</v>
+      </c>
+      <c r="O24">
+        <v>0.4849686961401515</v>
+      </c>
+      <c r="P24">
+        <v>0.4884533776036221</v>
+      </c>
+      <c r="Q24">
+        <v>99.22190502109584</v>
+      </c>
+      <c r="R24">
+        <v>595.331430126575</v>
+      </c>
+      <c r="S24">
+        <v>0.03146920538238537</v>
+      </c>
+      <c r="T24">
+        <v>0.02159736036447374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.7857145</v>
+      </c>
+      <c r="H25">
+        <v>7.571429</v>
+      </c>
+      <c r="I25">
+        <v>0.06488914775911858</v>
+      </c>
+      <c r="J25">
+        <v>0.04421580718805042</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.225729</v>
+      </c>
+      <c r="N25">
+        <v>69.677187</v>
+      </c>
+      <c r="O25">
+        <v>0.4297573948703004</v>
+      </c>
+      <c r="P25">
+        <v>0.4328453624847321</v>
+      </c>
+      <c r="Q25">
+        <v>87.92597904837051</v>
+      </c>
+      <c r="R25">
+        <v>527.5558742902231</v>
+      </c>
+      <c r="S25">
+        <v>0.02788659109631279</v>
+      </c>
+      <c r="T25">
+        <v>0.01913860708986671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.7857145</v>
+      </c>
+      <c r="H26">
+        <v>7.571429</v>
+      </c>
+      <c r="I26">
+        <v>0.06488914775911858</v>
+      </c>
+      <c r="J26">
+        <v>0.04421580718805042</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.156664</v>
+      </c>
+      <c r="N26">
+        <v>2.313328</v>
+      </c>
+      <c r="O26">
+        <v>0.02140233821639188</v>
+      </c>
+      <c r="P26">
+        <v>0.01437074801406779</v>
+      </c>
+      <c r="Q26">
+        <v>4.378799676428</v>
+      </c>
+      <c r="R26">
+        <v>17.515198705712</v>
+      </c>
+      <c r="S26">
+        <v>0.001388779486914083</v>
+      </c>
+      <c r="T26">
+        <v>0.00063541422333808</v>
       </c>
     </row>
   </sheetData>
